--- a/excels/英雄列表.xlsx
+++ b/excels/英雄列表.xlsx
@@ -432,14 +432,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,13 +584,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -917,143 +903,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1392,8 +1378,8 @@
   <sheetPr/>
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2034,7 +2020,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
